--- a/BackTest/2020-01-21 BackTest THETA.xlsx
+++ b/BackTest/2020-01-21 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>41939.75588705627</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,19 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>131.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>131.1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +754,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +793,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +863,15 @@
         <v>-8257.387312943727</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +896,15 @@
         <v>-7960.090612943727</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +929,15 @@
         <v>-9853.926712943727</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1030,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1327,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1358,15 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1393,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1424,15 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1457,15 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1490,15 @@
         <v>-100316.6735129437</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1525,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1558,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1591,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1624,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1657,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1690,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1723,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2680,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2713,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2746,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2779,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2812,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,22 +2876,19 @@
         <v>-129444.2153129438</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J75" t="n">
         <v>128</v>
       </c>
-      <c r="K75" t="n">
-        <v>128</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3124,26 +2913,23 @@
         <v>-127588.0246129438</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>129.2</v>
       </c>
       <c r="J76" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K76" t="n">
         <v>128</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3170,22 +2956,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>128</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,16 +2995,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,16 +3028,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,16 +3061,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,18 +3092,19 @@
         <v>-124025.9935984599</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="J81" t="n">
+        <v>130</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,18 +3129,23 @@
         <v>-124817.3450984599</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>129.4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>130</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,22 +3170,23 @@
         <v>-98817.34509845993</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>129.2</v>
       </c>
       <c r="J83" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K83" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,26 +3211,21 @@
         <v>-102349.2959984599</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="K84" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3476,22 +3252,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>130</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,16 +3291,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>130</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3554,16 +3330,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>130</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,16 +3369,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>130</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3624,22 +3406,21 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3664,26 +3445,21 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3710,22 +3486,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>130</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,16 +3525,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>130</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3788,16 +3564,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>130</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3824,16 +3603,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>130</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3860,16 +3642,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>130</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3896,16 +3681,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>130</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3932,16 +3720,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>130</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,16 +3759,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>130</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,16 +3798,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>130</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4040,16 +3837,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>130</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4076,16 +3876,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>130</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,16 +3915,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>130</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4148,16 +3954,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>130</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4184,16 +3993,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>130</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4220,16 +4032,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>130</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4256,16 +4071,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>130</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4292,16 +4110,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>130</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4328,16 +4149,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>130</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4364,16 +4188,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>130</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4400,16 +4227,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>130</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,16 +4266,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>130</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4472,16 +4305,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>130</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4506,22 +4342,21 @@
         <v>-133132.3627810462</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>129</v>
-      </c>
-      <c r="K113" t="n">
-        <v>129</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4546,26 +4381,21 @@
         <v>-148314.2697810462</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>129</v>
-      </c>
-      <c r="K114" t="n">
-        <v>129</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4590,26 +4420,21 @@
         <v>-143178.7639810462</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>129</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4634,26 +4459,21 @@
         <v>-152151.3493810462</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>129</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4678,26 +4498,21 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="K117" t="n">
-        <v>129</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4724,24 +4539,19 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>129</v>
-      </c>
-      <c r="K118" t="n">
-        <v>129</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4766,26 +4576,21 @@
         <v>-195558.1283810461</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>129</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4810,28 +4615,23 @@
         <v>-187835.3912810461</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="K120" t="n">
-        <v>129</v>
-      </c>
-      <c r="L120" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest THETA.xlsx
+++ b/BackTest/2020-01-21 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>41939.75588705627</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,14 +715,10 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>131.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -755,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -794,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -863,7 +847,7 @@
         <v>-8257.387312943727</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -896,7 +880,7 @@
         <v>-7960.090612943727</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -929,7 +913,7 @@
         <v>-9853.926712943727</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -962,7 +946,7 @@
         <v>-10008.96471294373</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -995,7 +979,7 @@
         <v>-17885.90811294373</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1028,7 +1012,7 @@
         <v>-17797.90811294373</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1061,7 +1045,7 @@
         <v>-21080.63121294372</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1094,7 +1078,7 @@
         <v>-130211.5997129437</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1127,7 +1111,7 @@
         <v>-129951.6382129437</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1160,7 +1144,7 @@
         <v>-129961.6383129437</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1193,7 +1177,7 @@
         <v>-131207.0118129437</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1210,7 @@
         <v>-133526.4261129437</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1243,7 @@
         <v>-133526.4261129437</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1276,7 @@
         <v>-132926.4261129437</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1342,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1391,7 +1375,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1424,7 +1408,7 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1457,7 +1441,7 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>-100316.6735129437</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>-89519.43111294373</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1606,7 @@
         <v>-89519.43111294373</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1639,7 @@
         <v>-93117.17271294372</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1688,7 +1672,7 @@
         <v>-93336.28271294372</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
         <v>-93254.82081294373</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1754,7 +1738,7 @@
         <v>-93700.62911294373</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1787,7 +1771,7 @@
         <v>-78729.60681294373</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1820,7 +1804,7 @@
         <v>-68829.60681294373</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1853,7 +1837,7 @@
         <v>-68938.84681294374</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2018,7 +2002,7 @@
         <v>-37164.99611294374</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2035,7 @@
         <v>-137318.8421129438</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2068,7 @@
         <v>-142484.5953129438</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2117,7 +2101,7 @@
         <v>-122259.4088129438</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2183,7 +2167,7 @@
         <v>-125742.4337129438</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2282,7 +2266,7 @@
         <v>-106145.1391129438</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-106145.1391129438</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2381,7 +2365,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2414,7 +2398,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2876,14 +2860,10 @@
         <v>-129444.2153129438</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>128</v>
-      </c>
-      <c r="J75" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2913,19 +2893,11 @@
         <v>-127588.0246129438</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>128</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>128</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3092,14 +3058,10 @@
         <v>-124025.9935984599</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>130</v>
-      </c>
-      <c r="J81" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3129,1347 +3091,1139 @@
         <v>-124817.3450984599</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>130</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-98817.34509845993</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3531.9509</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-102349.2959984599</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>777.293</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-101572.0029984599</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>83.00069999999999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-101489.0022984599</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>88.35299999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-101577.3552984599</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>60</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-101637.3552984599</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>348.7563</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-101288.5989984599</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>288.2304</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-101288.5989984599</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1277.3441</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-100011.2548984599</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15600.5114</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-100011.2548984599</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>29224.0136</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-129235.2684984599</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>53300</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-75935.26849845992</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11167.4103</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-64767.85819845992</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14292.7623</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-79060.62049845992</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-77460.62049845992</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>134</v>
+      </c>
+      <c r="D98" t="n">
+        <v>134</v>
+      </c>
+      <c r="E98" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>37351.5452</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-40109.07529845992</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>134</v>
+      </c>
+      <c r="C99" t="n">
+        <v>134</v>
+      </c>
+      <c r="D99" t="n">
+        <v>134</v>
+      </c>
+      <c r="E99" t="n">
+        <v>134</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6155.3016</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-40109.07529845992</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="D100" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>37.39715781600599</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-40146.47245627592</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>794.0074906367041</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-40940.47994691262</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2246.136534133534</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-43186.61648104616</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>530.2401</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-43716.85658104616</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>80390.5387</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-124107.3952810462</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>132</v>
+      </c>
+      <c r="C105" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>132</v>
+      </c>
+      <c r="E105" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>794.0075000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-124901.4027810462</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>131</v>
+      </c>
+      <c r="C106" t="n">
+        <v>131</v>
+      </c>
+      <c r="D106" t="n">
+        <v>131</v>
+      </c>
+      <c r="E106" t="n">
+        <v>131</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-124891.4027810462</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>71.0963</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-124962.4990810462</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>133</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-125095.4990810462</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14.9703</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-125095.4990810462</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>129</v>
+      </c>
+      <c r="C110" t="n">
+        <v>129</v>
+      </c>
+      <c r="D110" t="n">
+        <v>129</v>
+      </c>
+      <c r="E110" t="n">
+        <v>129</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8036.8637</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-133132.3627810462</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>129</v>
+      </c>
+      <c r="C111" t="n">
+        <v>129</v>
+      </c>
+      <c r="D111" t="n">
+        <v>129</v>
+      </c>
+      <c r="E111" t="n">
+        <v>129</v>
+      </c>
+      <c r="F111" t="n">
+        <v>18157.6671</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-133132.3627810462</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>129</v>
+      </c>
+      <c r="C112" t="n">
+        <v>129</v>
+      </c>
+      <c r="D112" t="n">
+        <v>129</v>
+      </c>
+      <c r="E112" t="n">
+        <v>129</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2753.9162</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-133132.3627810462</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>129</v>
+      </c>
+      <c r="C113" t="n">
+        <v>129</v>
+      </c>
+      <c r="D113" t="n">
+        <v>129</v>
+      </c>
+      <c r="E113" t="n">
+        <v>129</v>
+      </c>
+      <c r="F113" t="n">
+        <v>29500</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-133132.3627810462</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15181.907</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-148314.2697810462</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5135.5058</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-143178.7639810462</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8972.5854</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-152151.3493810462</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-98817.34509845993</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>130</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="C84" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3531.9509</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-102349.2959984599</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>130</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>777.293</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-101572.0029984599</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>130</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>83.00069999999999</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-101489.0022984599</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>130</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="C87" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="E87" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>88.35299999999999</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-101577.3552984599</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>130</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="C88" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="F88" t="n">
-        <v>60</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-101637.3552984599</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>130</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>348.7563</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-101288.5989984599</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>130</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>288.2304</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-101288.5989984599</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>130</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1277.3441</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-100011.2548984599</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>130</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>15600.5114</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-100011.2548984599</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>130</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="C93" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="E93" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="F93" t="n">
-        <v>29224.0136</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-129235.2684984599</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>130</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>53300</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-75935.26849845992</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>130</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="C95" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="F95" t="n">
-        <v>11167.4103</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-64767.85819845992</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>130</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>14292.7623</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-79060.62049845992</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>130</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="C97" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-77460.62049845992</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>130</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>134</v>
-      </c>
-      <c r="D98" t="n">
-        <v>134</v>
-      </c>
-      <c r="E98" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>37351.5452</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-40109.07529845992</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>130</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>134</v>
-      </c>
-      <c r="C99" t="n">
-        <v>134</v>
-      </c>
-      <c r="D99" t="n">
-        <v>134</v>
-      </c>
-      <c r="E99" t="n">
-        <v>134</v>
-      </c>
-      <c r="F99" t="n">
-        <v>6155.3016</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-40109.07529845992</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>130</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="D100" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="E100" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>37.39715781600599</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-40146.47245627592</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>130</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>794.0074906367041</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-40940.47994691262</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>130</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2246.136534133534</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-43186.61648104616</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>130</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="C103" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="D103" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="E103" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="F103" t="n">
-        <v>530.2401</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-43716.85658104616</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>130</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>133.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>130.4</v>
-      </c>
-      <c r="F104" t="n">
-        <v>80390.5387</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-124107.3952810462</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>130</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>132</v>
-      </c>
-      <c r="C105" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>132</v>
-      </c>
-      <c r="E105" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>794.0075000000001</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-124901.4027810462</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>130</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>131</v>
-      </c>
-      <c r="C106" t="n">
-        <v>131</v>
-      </c>
-      <c r="D106" t="n">
-        <v>131</v>
-      </c>
-      <c r="E106" t="n">
-        <v>131</v>
-      </c>
-      <c r="F106" t="n">
-        <v>10</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-124891.4027810462</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>130</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>130.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>130.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>130.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>130.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>71.0963</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-124962.4990810462</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>130</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>133</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-125095.4990810462</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>130</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>14.9703</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-125095.4990810462</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>130</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>129</v>
-      </c>
-      <c r="C110" t="n">
-        <v>129</v>
-      </c>
-      <c r="D110" t="n">
-        <v>129</v>
-      </c>
-      <c r="E110" t="n">
-        <v>129</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8036.8637</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>130</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>129</v>
-      </c>
-      <c r="C111" t="n">
-        <v>129</v>
-      </c>
-      <c r="D111" t="n">
-        <v>129</v>
-      </c>
-      <c r="E111" t="n">
-        <v>129</v>
-      </c>
-      <c r="F111" t="n">
-        <v>18157.6671</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>130</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>129</v>
-      </c>
-      <c r="C112" t="n">
-        <v>129</v>
-      </c>
-      <c r="D112" t="n">
-        <v>129</v>
-      </c>
-      <c r="E112" t="n">
-        <v>129</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2753.9162</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>130</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>129</v>
-      </c>
-      <c r="C113" t="n">
-        <v>129</v>
-      </c>
-      <c r="D113" t="n">
-        <v>129</v>
-      </c>
-      <c r="E113" t="n">
-        <v>129</v>
-      </c>
-      <c r="F113" t="n">
-        <v>29500</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>130</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>15181.907</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-148314.2697810462</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>130</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>5135.5058</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-143178.7639810462</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>130</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8972.5854</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-152151.3493810462</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>130</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4498,12 +4252,12 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,10 +4293,10 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>130</v>
-      </c>
+      <c r="I118" t="n">
+        <v>129</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,9 +4333,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>130</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,9 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>130</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,6 +4382,6 @@
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest THETA.xlsx
+++ b/BackTest/2020-01-21 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42209.04278705627</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>41939.75588705627</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9853.926712943727</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-10008.96471294373</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-17885.90811294373</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-17797.90811294373</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-21080.63121294372</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-130211.5997129437</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-129951.6382129437</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-129961.6383129437</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-131207.0118129437</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-133526.4261129437</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-133526.4261129437</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-132926.4261129437</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-107326.4261129437</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-100326.4261129437</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-100316.6735129437</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-89519.43111294373</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-89519.43111294373</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-93117.17271294372</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-93336.28271294372</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-93254.82081294373</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-93700.62911294373</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-78729.60681294373</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-86188.99611294374</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-37164.99611294374</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-137318.8421129438</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-142484.5953129438</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-122259.4088129438</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-125742.4337129438</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-106145.1391129438</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-106145.1391129438</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-109945.1391129438</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3421,10 +3421,14 @@
         <v>-100011.2548984599</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3454,11 +3458,19 @@
         <v>-129235.2684984599</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3499,19 @@
         <v>-75935.26849845992</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3540,19 @@
         <v>-64767.85819845992</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3623,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3662,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3701,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3740,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3896,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3974,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4013,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4052,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4091,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4130,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4169,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4208,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4247,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4286,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4325,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,15 +4361,15 @@
         <v>-152151.3493810462</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4252,12 +4400,12 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,12 +4439,12 @@
         <v>-166448.5617810462</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>129</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,7 +4481,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,7 +4520,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,6 +4534,6 @@
       <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest THETA.xlsx
+++ b/BackTest/2020-01-21 BackTest THETA.xlsx
@@ -451,7 +451,7 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>42209.04278705627</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>41939.75588705627</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>56939.17668705627</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-68829.60681294373</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-68938.84681294374</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-86188.99611294374</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2893,10 +2893,14 @@
         <v>-127588.0246129438</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>129.2</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2926,11 +2930,19 @@
         <v>-126857.5055129438</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,10 +3010,14 @@
         <v>-126228.7675984599</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>129.5</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3028,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3125,19 @@
         <v>-124817.3450984599</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3166,19 @@
         <v>-98817.34509845993</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3207,19 @@
         <v>-102349.2959984599</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3248,19 @@
         <v>-101572.0029984599</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3406,19 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3447,19 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3488,19 @@
         <v>-100011.2548984599</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3427,9 +3535,13 @@
         <v>129.2</v>
       </c>
       <c r="J92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>129.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3576,11 @@
         <v>129.2</v>
       </c>
       <c r="J93" t="n">
-        <v>129.2</v>
+        <v>129.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3505,7 +3617,7 @@
         <v>127.2</v>
       </c>
       <c r="J94" t="n">
-        <v>129.2</v>
+        <v>129.5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3546,7 +3658,7 @@
         <v>130.2</v>
       </c>
       <c r="J95" t="n">
-        <v>129.2</v>
+        <v>129.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3585,7 +3697,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>129.2</v>
+        <v>129.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3620,19 +3732,19 @@
         <v>-77460.62049845992</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>129.2</v>
+        <v>129.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>1.026660231660232</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -3659,17 +3771,11 @@
         <v>-40109.07529845992</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3698,17 +3804,11 @@
         <v>-40109.07529845992</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3737,17 +3837,11 @@
         <v>-40146.47245627592</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3776,17 +3870,11 @@
         <v>-40940.47994691262</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3815,17 +3903,11 @@
         <v>-43186.61648104616</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3854,17 +3936,11 @@
         <v>-43716.85658104616</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3893,17 +3969,11 @@
         <v>-124107.3952810462</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3932,17 +4002,11 @@
         <v>-124901.4027810462</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3971,17 +4035,11 @@
         <v>-124891.4027810462</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4010,17 +4068,11 @@
         <v>-124962.4990810462</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4052,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4205,17 +4233,15 @@
         <v>-133132.3627810462</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>129</v>
+      </c>
       <c r="J112" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4244,15 +4270,17 @@
         <v>-133132.3627810462</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>129</v>
+      </c>
       <c r="J113" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4283,15 +4311,17 @@
         <v>-148314.2697810462</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>129</v>
+      </c>
       <c r="J114" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4322,11 +4352,13 @@
         <v>-143178.7639810462</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>126.8</v>
+      </c>
       <c r="J115" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4361,11 +4393,13 @@
         <v>-152151.3493810462</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>127.2</v>
+      </c>
       <c r="J116" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4400,11 +4434,13 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>126.7</v>
+      </c>
       <c r="J117" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4439,11 +4475,13 @@
         <v>-166448.5617810462</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>129</v>
+      </c>
       <c r="J118" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4478,11 +4516,13 @@
         <v>-195558.1283810461</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>128.7</v>
+      </c>
       <c r="J119" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4517,11 +4557,13 @@
         <v>-187835.3912810461</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>127.6</v>
+      </c>
       <c r="J120" t="n">
-        <v>129.2</v>
+        <v>129</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>

--- a/BackTest/2020-01-21 BackTest THETA.xlsx
+++ b/BackTest/2020-01-21 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1307.0775</v>
       </c>
       <c r="G2" t="n">
-        <v>52886.24588705627</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10677.2031</v>
       </c>
       <c r="G3" t="n">
-        <v>42209.04278705627</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>269.2869</v>
       </c>
       <c r="G4" t="n">
-        <v>41939.75588705627</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>494.2319</v>
       </c>
       <c r="G5" t="n">
-        <v>41445.52398705627</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>57.8119</v>
       </c>
       <c r="G6" t="n">
-        <v>41503.33588705627</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>743.9149</v>
       </c>
       <c r="G7" t="n">
-        <v>40759.42098705627</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>558.967</v>
       </c>
       <c r="G8" t="n">
-        <v>40759.42098705627</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3304.184</v>
       </c>
       <c r="G9" t="n">
-        <v>37455.23698705627</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20000</v>
       </c>
       <c r="G10" t="n">
-        <v>57455.23698705627</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>9900.66</v>
       </c>
       <c r="G11" t="n">
-        <v>57455.23698705627</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12800</v>
       </c>
       <c r="G12" t="n">
-        <v>57455.23698705627</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>516.0603</v>
       </c>
       <c r="G13" t="n">
-        <v>56939.17668705627</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>65196.564</v>
       </c>
       <c r="G14" t="n">
-        <v>-8257.387312943727</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>297.2967</v>
       </c>
       <c r="G15" t="n">
-        <v>-7960.090612943727</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1893.8361</v>
       </c>
       <c r="G16" t="n">
-        <v>-9853.926712943727</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>155.038</v>
       </c>
       <c r="G17" t="n">
-        <v>-10008.96471294373</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7876.9434</v>
       </c>
       <c r="G18" t="n">
-        <v>-17885.90811294373</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>88</v>
       </c>
       <c r="G19" t="n">
-        <v>-17797.90811294373</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3282.7231</v>
       </c>
       <c r="G20" t="n">
-        <v>-21080.63121294372</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>109130.9685</v>
       </c>
       <c r="G21" t="n">
-        <v>-130211.5997129437</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>259.9615</v>
       </c>
       <c r="G22" t="n">
-        <v>-129951.6382129437</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>10.0001</v>
       </c>
       <c r="G23" t="n">
-        <v>-129961.6383129437</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1245.3735</v>
       </c>
       <c r="G24" t="n">
-        <v>-131207.0118129437</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2319.4143</v>
       </c>
       <c r="G25" t="n">
-        <v>-133526.4261129437</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,19 @@
         <v>1913.0889</v>
       </c>
       <c r="G26" t="n">
-        <v>-133526.4261129437</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>126.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>126.1</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1197,23 @@
         <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>-132926.4261129437</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>126.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1235,23 @@
         <v>25600</v>
       </c>
       <c r="G28" t="n">
-        <v>-107326.4261129437</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>126.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1273,19 @@
         <v>7254.6786</v>
       </c>
       <c r="G29" t="n">
-        <v>-107326.4261129437</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="I29" t="n">
+        <v>128</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1307,21 @@
         <v>9450.617899999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-107326.4261129437</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>128</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1343,21 @@
         <v>7000</v>
       </c>
       <c r="G31" t="n">
-        <v>-100326.4261129437</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>128</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1379,15 @@
         <v>9003.247799999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-100326.4261129437</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1409,15 @@
         <v>9.752599999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-100316.6735129437</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,15 @@
         <v>4380.2418</v>
       </c>
       <c r="G34" t="n">
-        <v>-104696.9153129437</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,21 @@
         <v>53781.994</v>
       </c>
       <c r="G35" t="n">
-        <v>-104696.9153129437</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1505,21 @@
         <v>15177.4842</v>
       </c>
       <c r="G36" t="n">
-        <v>-89519.43111294373</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1541,19 @@
         <v>664.7743</v>
       </c>
       <c r="G37" t="n">
-        <v>-89519.43111294373</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1575,19 @@
         <v>3597.7416</v>
       </c>
       <c r="G38" t="n">
-        <v>-93117.17271294372</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1609,19 @@
         <v>219.11</v>
       </c>
       <c r="G39" t="n">
-        <v>-93336.28271294372</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1643,19 @@
         <v>81.4619</v>
       </c>
       <c r="G40" t="n">
-        <v>-93254.82081294373</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1677,19 @@
         <v>445.8083</v>
       </c>
       <c r="G41" t="n">
-        <v>-93700.62911294373</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1711,19 @@
         <v>14971.0223</v>
       </c>
       <c r="G42" t="n">
-        <v>-78729.60681294373</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1745,19 @@
         <v>9900</v>
       </c>
       <c r="G43" t="n">
-        <v>-68829.60681294373</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1779,19 @@
         <v>109.24</v>
       </c>
       <c r="G44" t="n">
-        <v>-68938.84681294374</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1813,19 @@
         <v>6749.8507</v>
       </c>
       <c r="G45" t="n">
-        <v>-62188.99611294374</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1847,19 @@
         <v>17250.1493</v>
       </c>
       <c r="G46" t="n">
-        <v>-62188.99611294374</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1881,19 @@
         <v>24000</v>
       </c>
       <c r="G47" t="n">
-        <v>-86188.99611294374</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1915,19 @@
         <v>24000</v>
       </c>
       <c r="G48" t="n">
-        <v>-62188.99611294374</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1949,19 @@
         <v>25024</v>
       </c>
       <c r="G49" t="n">
-        <v>-37164.99611294374</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1983,19 @@
         <v>100153.846</v>
       </c>
       <c r="G50" t="n">
-        <v>-137318.8421129438</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2017,19 @@
         <v>5165.7532</v>
       </c>
       <c r="G51" t="n">
-        <v>-142484.5953129438</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2051,19 @@
         <v>20225.1865</v>
       </c>
       <c r="G52" t="n">
-        <v>-122259.4088129438</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2085,19 @@
         <v>3483.0249</v>
       </c>
       <c r="G53" t="n">
-        <v>-125742.4337129438</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2119,19 @@
         <v>8482.4447</v>
       </c>
       <c r="G54" t="n">
-        <v>-125742.4337129438</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2153,19 @@
         <v>4897.2946</v>
       </c>
       <c r="G55" t="n">
-        <v>-120845.1391129438</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2187,19 @@
         <v>14700</v>
       </c>
       <c r="G56" t="n">
-        <v>-106145.1391129438</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2221,19 @@
         <v>9092.132409545804</v>
       </c>
       <c r="G57" t="n">
-        <v>-106145.1391129438</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2255,19 @@
         <v>3800</v>
       </c>
       <c r="G58" t="n">
-        <v>-106145.1391129438</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2289,19 @@
         <v>3800</v>
       </c>
       <c r="G59" t="n">
-        <v>-109945.1391129438</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2323,19 @@
         <v>9092.1325</v>
       </c>
       <c r="G60" t="n">
-        <v>-109945.1391129438</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2357,19 @@
         <v>200</v>
       </c>
       <c r="G61" t="n">
-        <v>-109945.1391129438</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2391,19 @@
         <v>9432.6734</v>
       </c>
       <c r="G62" t="n">
-        <v>-100512.4657129438</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2425,19 @@
         <v>10000</v>
       </c>
       <c r="G63" t="n">
-        <v>-110512.4657129438</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2459,19 @@
         <v>20225.1865</v>
       </c>
       <c r="G64" t="n">
-        <v>-130737.6522129438</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2493,19 @@
         <v>121</v>
       </c>
       <c r="G65" t="n">
-        <v>-130858.6522129438</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2527,19 @@
         <v>3885.479</v>
       </c>
       <c r="G66" t="n">
-        <v>-130858.6522129438</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2561,21 @@
         <v>14700</v>
       </c>
       <c r="G67" t="n">
-        <v>-116158.6522129438</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>127.4</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2597,19 @@
         <v>5135.5058</v>
       </c>
       <c r="G68" t="n">
-        <v>-116158.6522129438</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2631,21 @@
         <v>3900</v>
       </c>
       <c r="G69" t="n">
-        <v>-116158.6522129438</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>128.3</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2667,19 @@
         <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>-116146.6522129438</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2701,19 @@
         <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>-116152.6522129438</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2735,21 @@
         <v>30008</v>
       </c>
       <c r="G72" t="n">
-        <v>-146160.6522129438</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>127.7</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2771,21 @@
         <v>25.5012</v>
       </c>
       <c r="G73" t="n">
-        <v>-146135.1510129438</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>126.8</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2807,21 @@
         <v>14362.1354</v>
       </c>
       <c r="G74" t="n">
-        <v>-131773.0156129438</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>127.9</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2843,21 @@
         <v>2328.8003</v>
       </c>
       <c r="G75" t="n">
-        <v>-129444.2153129438</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,22 +2879,21 @@
         <v>1856.1907</v>
       </c>
       <c r="G76" t="n">
-        <v>-127588.0246129438</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
         <v>129.2</v>
       </c>
-      <c r="J76" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2927,26 +2915,21 @@
         <v>730.5191</v>
       </c>
       <c r="G77" t="n">
-        <v>-126857.5055129438</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>129.5</v>
       </c>
-      <c r="J77" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2968,24 +2951,19 @@
         <v>633.8815</v>
       </c>
       <c r="G78" t="n">
-        <v>-127491.3870129438</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,22 +2985,19 @@
         <v>1262.619414483821</v>
       </c>
       <c r="G79" t="n">
-        <v>-126228.7675984599</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3044,24 +3019,19 @@
         <v>5989.481</v>
       </c>
       <c r="G80" t="n">
-        <v>-120239.2865984599</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3083,24 +3053,19 @@
         <v>3786.707</v>
       </c>
       <c r="G81" t="n">
-        <v>-124025.9935984599</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3122,26 +3087,19 @@
         <v>791.3515</v>
       </c>
       <c r="G82" t="n">
-        <v>-124817.3450984599</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3163,26 +3121,19 @@
         <v>26000</v>
       </c>
       <c r="G83" t="n">
-        <v>-98817.34509845993</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3204,26 +3155,19 @@
         <v>3531.9509</v>
       </c>
       <c r="G84" t="n">
-        <v>-102349.2959984599</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3245,26 +3189,21 @@
         <v>777.293</v>
       </c>
       <c r="G85" t="n">
-        <v>-101572.0029984599</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
         <v>128.6</v>
       </c>
-      <c r="J85" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3286,24 +3225,21 @@
         <v>83.00069999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-101489.0022984599</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>128.8</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3325,24 +3261,19 @@
         <v>88.35299999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-101577.3552984599</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3364,24 +3295,19 @@
         <v>60</v>
       </c>
       <c r="G88" t="n">
-        <v>-101637.3552984599</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3403,26 +3329,21 @@
         <v>348.7563</v>
       </c>
       <c r="G89" t="n">
-        <v>-101288.5989984599</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
         <v>127.4</v>
       </c>
-      <c r="J89" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3444,26 +3365,19 @@
         <v>288.2304</v>
       </c>
       <c r="G90" t="n">
-        <v>-101288.5989984599</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3485,26 +3399,21 @@
         <v>1277.3441</v>
       </c>
       <c r="G91" t="n">
-        <v>-100011.2548984599</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
         <v>128.1</v>
       </c>
-      <c r="J91" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3526,26 +3435,19 @@
         <v>15600.5114</v>
       </c>
       <c r="G92" t="n">
-        <v>-100011.2548984599</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3567,26 +3469,21 @@
         <v>29224.0136</v>
       </c>
       <c r="G93" t="n">
-        <v>-129235.2684984599</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
         <v>129.2</v>
       </c>
-      <c r="J93" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3608,26 +3505,21 @@
         <v>53300</v>
       </c>
       <c r="G94" t="n">
-        <v>-75935.26849845992</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
         <v>127.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3649,26 +3541,19 @@
         <v>11167.4103</v>
       </c>
       <c r="G95" t="n">
-        <v>-64767.85819845992</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3690,24 +3575,19 @@
         <v>14292.7623</v>
       </c>
       <c r="G96" t="n">
-        <v>-79060.62049845992</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3729,24 +3609,19 @@
         <v>1600</v>
       </c>
       <c r="G97" t="n">
-        <v>-77460.62049845992</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1.026660231660232</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3768,18 +3643,19 @@
         <v>37351.5452</v>
       </c>
       <c r="G98" t="n">
-        <v>-40109.07529845992</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3801,18 +3677,19 @@
         <v>6155.3016</v>
       </c>
       <c r="G99" t="n">
-        <v>-40109.07529845992</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3834,18 +3711,19 @@
         <v>37.39715781600599</v>
       </c>
       <c r="G100" t="n">
-        <v>-40146.47245627592</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3867,18 +3745,19 @@
         <v>794.0074906367041</v>
       </c>
       <c r="G101" t="n">
-        <v>-40940.47994691262</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3900,18 +3779,19 @@
         <v>2246.136534133534</v>
       </c>
       <c r="G102" t="n">
-        <v>-43186.61648104616</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3933,18 +3813,19 @@
         <v>530.2401</v>
       </c>
       <c r="G103" t="n">
-        <v>-43716.85658104616</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3966,18 +3847,17 @@
         <v>80390.5387</v>
       </c>
       <c r="G104" t="n">
-        <v>-124107.3952810462</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3999,18 +3879,15 @@
         <v>794.0075000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-124901.4027810462</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4032,18 +3909,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-124891.4027810462</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4065,18 +3939,15 @@
         <v>71.0963</v>
       </c>
       <c r="G107" t="n">
-        <v>-124962.4990810462</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4098,18 +3969,15 @@
         <v>133</v>
       </c>
       <c r="G108" t="n">
-        <v>-125095.4990810462</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4131,18 +3999,15 @@
         <v>14.9703</v>
       </c>
       <c r="G109" t="n">
-        <v>-125095.4990810462</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4164,18 +4029,15 @@
         <v>8036.8637</v>
       </c>
       <c r="G110" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4197,18 +4059,15 @@
         <v>18157.6671</v>
       </c>
       <c r="G111" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4230,22 +4089,15 @@
         <v>2753.9162</v>
       </c>
       <c r="G112" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>129</v>
-      </c>
-      <c r="J112" t="n">
-        <v>129</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4267,26 +4119,15 @@
         <v>29500</v>
       </c>
       <c r="G113" t="n">
-        <v>-133132.3627810462</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>129</v>
-      </c>
-      <c r="J113" t="n">
-        <v>129</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4308,26 +4149,15 @@
         <v>15181.907</v>
       </c>
       <c r="G114" t="n">
-        <v>-148314.2697810462</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>129</v>
-      </c>
-      <c r="J114" t="n">
-        <v>129</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4349,26 +4179,15 @@
         <v>5135.5058</v>
       </c>
       <c r="G115" t="n">
-        <v>-143178.7639810462</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>129</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4390,26 +4209,21 @@
         <v>8972.5854</v>
       </c>
       <c r="G116" t="n">
-        <v>-152151.3493810462</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
         <v>127.2</v>
       </c>
-      <c r="J116" t="n">
-        <v>129</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4431,26 +4245,21 @@
         <v>21.4886</v>
       </c>
       <c r="G117" t="n">
-        <v>-152129.8607810462</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
         <v>126.7</v>
       </c>
-      <c r="J117" t="n">
-        <v>129</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4472,26 +4281,21 @@
         <v>14318.701</v>
       </c>
       <c r="G118" t="n">
-        <v>-166448.5617810462</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
         <v>129</v>
       </c>
-      <c r="J118" t="n">
-        <v>129</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4513,26 +4317,19 @@
         <v>29109.5666</v>
       </c>
       <c r="G119" t="n">
-        <v>-195558.1283810461</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="J119" t="n">
-        <v>129</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4554,26 +4351,19 @@
         <v>7722.7371</v>
       </c>
       <c r="G120" t="n">
-        <v>-187835.3912810461</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>129</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
